--- a/documents/Test Case PPDM-Jyoti.xlsx
+++ b/documents/Test Case PPDM-Jyoti.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Step</t>
   </si>
@@ -383,7 +383,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -440,6 +440,9 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
